--- a/Exoplanets/GJ9827d/Conversão lat.xlsx
+++ b/Exoplanets/GJ9827d/Conversão lat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\Exoplanets\GJ9827d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FAF01F-DA0B-4731-A82E-8B9924B1F39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA5B3B3-AB13-4EAB-9B9C-BD2B6A083E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{F010B853-5C37-4295-ACFC-BAB654A3AB5A}"/>
+    <workbookView xWindow="9660" yWindow="2085" windowWidth="13785" windowHeight="11325" xr2:uid="{F010B853-5C37-4295-ACFC-BAB654A3AB5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <dimension ref="B1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,17 +559,17 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="4">
-        <v>87.703000000000003</v>
+        <v>87.442999999999998</v>
       </c>
       <c r="C2" s="2">
         <v>0.60199999999999998</v>
       </c>
       <c r="D2" s="3">
-        <v>6.1100000000000002E-2</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="E2" s="1">
         <f>((1.496 * (10^8)) * D2) / (C2 * 696340)</f>
-        <v>21.804943684191393</v>
+        <v>19.949203796175105</v>
       </c>
       <c r="F2">
         <f>PI()/180</f>
@@ -577,7 +577,7 @@
       </c>
       <c r="K2">
         <f>(ASIN(E2*COS(B2*F2))) / PI() * 180</f>
-        <v>60.918674718425066</v>
+        <v>62.873114240796639</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -602,21 +602,21 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2">
-        <v>1.31</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D5" s="3">
-        <v>5.0560000000000001E-2</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="E5">
         <f>(1.496 * (10^8)*D5) / (C5 * 696340)</f>
-        <v>8.2917465737431506</v>
+        <v>19.949203796175105</v>
       </c>
       <c r="K5">
         <f>180*(ACOS((SIN(B5*PI()/180))/E5)) / PI()</f>
-        <v>84.004850567031255</v>
+        <v>88.153540702525575</v>
       </c>
     </row>
   </sheetData>

--- a/Exoplanets/GJ9827d/Conversão lat.xlsx
+++ b/Exoplanets/GJ9827d/Conversão lat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\StarsAndExoplanets\Exoplanets\GJ9827d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA5B3B3-AB13-4EAB-9B9C-BD2B6A083E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0832BAF0-22E9-4C73-A86F-34693F936AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="2085" windowWidth="13785" windowHeight="11325" xr2:uid="{F010B853-5C37-4295-ACFC-BAB654A3AB5A}"/>
+    <workbookView minimized="1" xWindow="2940" yWindow="3735" windowWidth="13785" windowHeight="11325" xr2:uid="{F010B853-5C37-4295-ACFC-BAB654A3AB5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FB2307-3077-46D2-B810-C2CB7D8C2D53}">
-  <dimension ref="B1:K5"/>
+  <dimension ref="B1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +602,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>0.60199999999999998</v>
@@ -616,7 +616,12 @@
       </c>
       <c r="K5">
         <f>180*(ACOS((SIN(B5*PI()/180))/E5)) / PI()</f>
-        <v>88.153540702525575</v>
+        <v>89.01764145289971</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>89.017641452899696</v>
       </c>
     </row>
   </sheetData>
